--- a/work_with_tables/queensland_export.xlsx
+++ b/work_with_tables/queensland_export.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelparker/Dropbox (Personal)/MP_Python/work_with_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{242A3847-40FB-C142-8B9C-CB73DDEC91F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1A6154-4631-C546-A789-55781DC42145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11560" yWindow="5380" windowWidth="28040" windowHeight="17440" xr2:uid="{45B464D4-CB99-D540-AAB6-A452726A2E86}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="305">
   <si>
-    <t xml:space="preserve">Preferred Name </t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -951,6 +948,9 @@
   </si>
   <si>
     <t>Zimmerman, Leigh</t>
+  </si>
+  <si>
+    <t>Preferred Name </t>
   </si>
 </sst>
 </file>
@@ -1302,12 +1302,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE863852-FDBE-FC4E-AF6B-C7E850C2CE89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CDF228-44A4-4645-BA43-A40E0AA6D722}">
   <dimension ref="A1:I278"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1324,36 +1322,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>42</v>
@@ -1362,15 +1360,15 @@
         <v>29660</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>47</v>
@@ -1379,27 +1377,27 @@
         <v>27901</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>18</v>
@@ -1408,21 +1406,21 @@
         <v>38192</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>21</v>
@@ -1431,15 +1429,15 @@
         <v>37386</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -1448,15 +1446,15 @@
         <v>41117</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>13</v>
@@ -1465,21 +1463,21 @@
         <v>40272</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>46</v>
@@ -1488,21 +1486,21 @@
         <v>28074</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>72</v>
@@ -1511,21 +1509,21 @@
         <v>18625</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>71</v>
@@ -1534,27 +1532,27 @@
         <v>18860</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>32</v>
@@ -1563,15 +1561,15 @@
         <v>33403</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>68</v>
@@ -1580,15 +1578,15 @@
         <v>19917</v>
       </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>26</v>
@@ -1597,21 +1595,21 @@
         <v>35464</v>
       </c>
       <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
         <v>31</v>
       </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -1620,21 +1618,21 @@
         <v>40015</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>49</v>
@@ -1643,21 +1641,21 @@
         <v>27054</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>49</v>
@@ -1666,27 +1664,27 @@
         <v>27145</v>
       </c>
       <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
         <v>13</v>
       </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>68</v>
@@ -1695,21 +1693,21 @@
         <v>20107</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18">
         <v>39</v>
@@ -1718,21 +1716,21 @@
         <v>30831</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19">
         <v>48</v>
@@ -1741,27 +1739,27 @@
         <v>27284</v>
       </c>
       <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
         <v>13</v>
       </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1770,15 +1768,15 @@
         <v>44754</v>
       </c>
       <c r="H20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>72</v>
@@ -1787,27 +1785,27 @@
         <v>18450</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22">
         <v>33</v>
@@ -1816,21 +1814,21 @@
         <v>32713</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23">
         <v>69</v>
@@ -1839,21 +1837,21 @@
         <v>19862</v>
       </c>
       <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
         <v>13</v>
       </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
       <c r="H23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24">
         <v>67</v>
@@ -1862,15 +1860,15 @@
         <v>20313</v>
       </c>
       <c r="H24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25">
         <v>79</v>
@@ -1879,21 +1877,21 @@
         <v>15891</v>
       </c>
       <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
         <v>13</v>
       </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
       <c r="H25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26">
         <v>68</v>
@@ -1902,21 +1900,21 @@
         <v>20180</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27">
         <v>33</v>
@@ -1925,21 +1923,21 @@
         <v>32702</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28">
         <v>35</v>
@@ -1948,15 +1946,15 @@
         <v>31950</v>
       </c>
       <c r="H28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29">
         <v>52</v>
@@ -1965,27 +1963,27 @@
         <v>25923</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <v>54</v>
@@ -1994,21 +1992,21 @@
         <v>25189</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31">
         <v>54</v>
@@ -2017,27 +2015,27 @@
         <v>25041</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32">
         <v>37</v>
@@ -2046,21 +2044,21 @@
         <v>31275</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <v>11</v>
@@ -2069,15 +2067,15 @@
         <v>40874</v>
       </c>
       <c r="H33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34">
         <v>44</v>
@@ -2086,27 +2084,27 @@
         <v>28852</v>
       </c>
       <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
         <v>13</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>14</v>
       </c>
-      <c r="F34" t="s">
-        <v>15</v>
-      </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35">
         <v>15</v>
@@ -2115,27 +2113,27 @@
         <v>39380</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36">
         <v>55</v>
@@ -2144,21 +2142,21 @@
         <v>24874</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37">
         <v>30</v>
@@ -2167,21 +2165,21 @@
         <v>34015</v>
       </c>
       <c r="D37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" t="s">
         <v>31</v>
       </c>
-      <c r="E37" t="s">
-        <v>32</v>
-      </c>
       <c r="H37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38">
         <v>40</v>
@@ -2190,21 +2188,21 @@
         <v>30395</v>
       </c>
       <c r="D38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" t="s">
         <v>31</v>
       </c>
-      <c r="E38" t="s">
-        <v>32</v>
-      </c>
       <c r="H38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39">
         <v>70</v>
@@ -2213,27 +2211,27 @@
         <v>19385</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40">
         <v>67</v>
@@ -2242,27 +2240,27 @@
         <v>20523</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41">
         <v>65</v>
@@ -2271,21 +2269,21 @@
         <v>21319</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B42">
         <v>64</v>
@@ -2294,21 +2292,21 @@
         <v>21673</v>
       </c>
       <c r="F42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B43">
         <v>26</v>
@@ -2317,21 +2315,21 @@
         <v>35382</v>
       </c>
       <c r="F43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44">
         <v>31</v>
@@ -2340,27 +2338,27 @@
         <v>33545</v>
       </c>
       <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
         <v>13</v>
       </c>
-      <c r="E44" t="s">
-        <v>14</v>
-      </c>
       <c r="F44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -2369,15 +2367,15 @@
         <v>43739</v>
       </c>
       <c r="H45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2386,15 +2384,15 @@
         <v>44928</v>
       </c>
       <c r="H46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -2403,15 +2401,15 @@
         <v>44348</v>
       </c>
       <c r="H47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -2420,15 +2418,15 @@
         <v>43712</v>
       </c>
       <c r="H48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B49">
         <v>28</v>
@@ -2437,27 +2435,27 @@
         <v>34625</v>
       </c>
       <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
         <v>13</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>14</v>
       </c>
-      <c r="F49" t="s">
-        <v>15</v>
-      </c>
       <c r="G49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B50">
         <v>25</v>
@@ -2466,21 +2464,21 @@
         <v>35819</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B51">
         <v>81</v>
@@ -2489,15 +2487,15 @@
         <v>15300</v>
       </c>
       <c r="H51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B52">
         <v>41</v>
@@ -2506,21 +2504,21 @@
         <v>29838</v>
       </c>
       <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
         <v>13</v>
       </c>
-      <c r="E52" t="s">
-        <v>14</v>
-      </c>
       <c r="H52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B53">
         <v>62</v>
@@ -2529,21 +2527,21 @@
         <v>22103</v>
       </c>
       <c r="F53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B54">
         <v>35</v>
@@ -2552,21 +2550,21 @@
         <v>32310</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B55">
         <v>81</v>
@@ -2575,27 +2573,27 @@
         <v>15421</v>
       </c>
       <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
         <v>13</v>
       </c>
-      <c r="E55" t="s">
-        <v>14</v>
-      </c>
       <c r="F55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B56">
         <v>64</v>
@@ -2604,15 +2602,15 @@
         <v>21709</v>
       </c>
       <c r="H56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B57">
         <v>39</v>
@@ -2621,21 +2619,21 @@
         <v>30644</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B58">
         <v>61</v>
@@ -2644,27 +2642,27 @@
         <v>22550</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B59">
         <v>61</v>
@@ -2673,21 +2671,21 @@
         <v>22626</v>
       </c>
       <c r="D59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B60">
         <v>53</v>
@@ -2696,21 +2694,21 @@
         <v>25723</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B61">
         <v>18</v>
@@ -2719,27 +2717,27 @@
         <v>38264</v>
       </c>
       <c r="D61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B62">
         <v>52</v>
@@ -2748,15 +2746,15 @@
         <v>25771</v>
       </c>
       <c r="H62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B63">
         <v>75</v>
@@ -2765,21 +2763,21 @@
         <v>17393</v>
       </c>
       <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
         <v>13</v>
       </c>
-      <c r="E63" t="s">
-        <v>14</v>
-      </c>
       <c r="H63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B64">
         <v>14</v>
@@ -2788,15 +2786,15 @@
         <v>39825</v>
       </c>
       <c r="H64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B65">
         <v>33</v>
@@ -2805,21 +2803,21 @@
         <v>32772</v>
       </c>
       <c r="D65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" t="s">
         <v>31</v>
       </c>
-      <c r="E65" t="s">
-        <v>32</v>
-      </c>
       <c r="H65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -2828,15 +2826,15 @@
         <v>43755</v>
       </c>
       <c r="H66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B67">
         <v>15</v>
@@ -2845,15 +2843,15 @@
         <v>39434</v>
       </c>
       <c r="H67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B68">
         <v>33</v>
@@ -2862,15 +2860,15 @@
         <v>32965</v>
       </c>
       <c r="H68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B69">
         <v>42</v>
@@ -2879,21 +2877,21 @@
         <v>29699</v>
       </c>
       <c r="F69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B70">
         <v>47</v>
@@ -2902,27 +2900,27 @@
         <v>27752</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B71">
         <v>9</v>
@@ -2931,15 +2929,15 @@
         <v>41645</v>
       </c>
       <c r="H71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -2948,15 +2946,15 @@
         <v>43759</v>
       </c>
       <c r="H72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B73">
         <v>66</v>
@@ -2965,21 +2963,21 @@
         <v>20952</v>
       </c>
       <c r="F73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B74">
         <v>67</v>
@@ -2988,27 +2986,27 @@
         <v>20344</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B75">
         <v>88</v>
@@ -3017,21 +3015,21 @@
         <v>12821</v>
       </c>
       <c r="F75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B76">
         <v>76</v>
@@ -3040,27 +3038,27 @@
         <v>17312</v>
       </c>
       <c r="D76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B77">
         <v>65</v>
@@ -3069,21 +3067,21 @@
         <v>21156</v>
       </c>
       <c r="F77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B78">
         <v>76</v>
@@ -3092,21 +3090,21 @@
         <v>17320</v>
       </c>
       <c r="F78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B79">
         <v>64</v>
@@ -3115,21 +3113,21 @@
         <v>21425</v>
       </c>
       <c r="F79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B80">
         <v>51</v>
@@ -3138,21 +3136,21 @@
         <v>26434</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B81">
         <v>54</v>
@@ -3161,27 +3159,27 @@
         <v>25367</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B82">
         <v>59</v>
@@ -3190,27 +3188,27 @@
         <v>23258</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B83">
         <v>65</v>
@@ -3219,21 +3217,21 @@
         <v>21320</v>
       </c>
       <c r="F83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B84">
         <v>30</v>
@@ -3242,21 +3240,21 @@
         <v>33950</v>
       </c>
       <c r="F84" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B85">
         <v>30</v>
@@ -3265,15 +3263,15 @@
         <v>33789</v>
       </c>
       <c r="H85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B86">
         <v>32</v>
@@ -3282,27 +3280,27 @@
         <v>33333</v>
       </c>
       <c r="D86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" t="s">
         <v>13</v>
       </c>
-      <c r="E86" t="s">
-        <v>14</v>
-      </c>
       <c r="F86" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B87">
         <v>3</v>
@@ -3311,15 +3309,15 @@
         <v>43998</v>
       </c>
       <c r="H87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B88">
         <v>44</v>
@@ -3328,21 +3326,21 @@
         <v>28811</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B89">
         <v>9</v>
@@ -3351,15 +3349,15 @@
         <v>41462</v>
       </c>
       <c r="H89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B90">
         <v>7</v>
@@ -3368,15 +3366,15 @@
         <v>42411</v>
       </c>
       <c r="H90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B91">
         <v>38</v>
@@ -3385,15 +3383,15 @@
         <v>31116</v>
       </c>
       <c r="H91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B92">
         <v>66</v>
@@ -3402,27 +3400,27 @@
         <v>20691</v>
       </c>
       <c r="D92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" t="s">
         <v>13</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>14</v>
       </c>
-      <c r="F92" t="s">
-        <v>15</v>
-      </c>
       <c r="G92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B93">
         <v>43</v>
@@ -3431,15 +3429,15 @@
         <v>29178</v>
       </c>
       <c r="H93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B94">
         <v>11</v>
@@ -3448,15 +3446,15 @@
         <v>40833</v>
       </c>
       <c r="H94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B95">
         <v>14</v>
@@ -3465,21 +3463,21 @@
         <v>39637</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B96">
         <v>13</v>
@@ -3488,15 +3486,15 @@
         <v>40095</v>
       </c>
       <c r="H96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B97">
         <v>43</v>
@@ -3505,21 +3503,21 @@
         <v>29171</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B98">
         <v>40</v>
@@ -3528,21 +3526,21 @@
         <v>30128</v>
       </c>
       <c r="D98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" t="s">
         <v>13</v>
       </c>
-      <c r="E98" t="s">
-        <v>14</v>
-      </c>
       <c r="H98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B99">
         <v>8</v>
@@ -3551,15 +3549,15 @@
         <v>41822</v>
       </c>
       <c r="H99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B100">
         <v>10</v>
@@ -3568,15 +3566,15 @@
         <v>41425</v>
       </c>
       <c r="H100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B101">
         <v>17</v>
@@ -3585,21 +3583,21 @@
         <v>38873</v>
       </c>
       <c r="D101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B102">
         <v>65</v>
@@ -3608,21 +3606,21 @@
         <v>21090</v>
       </c>
       <c r="D102" t="s">
+        <v>30</v>
+      </c>
+      <c r="E102" t="s">
         <v>31</v>
       </c>
-      <c r="E102" t="s">
-        <v>32</v>
-      </c>
       <c r="H102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B103">
         <v>47</v>
@@ -3631,21 +3629,21 @@
         <v>27712</v>
       </c>
       <c r="F103" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B104">
         <v>13</v>
@@ -3654,21 +3652,21 @@
         <v>40135</v>
       </c>
       <c r="F104" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B105">
         <v>44</v>
@@ -3677,27 +3675,27 @@
         <v>28753</v>
       </c>
       <c r="D105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E105" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F105" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B106">
         <v>17</v>
@@ -3706,21 +3704,21 @@
         <v>38593</v>
       </c>
       <c r="F106" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B107">
         <v>12</v>
@@ -3729,21 +3727,21 @@
         <v>40675</v>
       </c>
       <c r="F107" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B108">
         <v>61</v>
@@ -3752,15 +3750,15 @@
         <v>22550</v>
       </c>
       <c r="H108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B109">
         <v>30</v>
@@ -3769,21 +3767,21 @@
         <v>34128</v>
       </c>
       <c r="F109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B110">
         <v>4</v>
@@ -3792,15 +3790,15 @@
         <v>43274</v>
       </c>
       <c r="H110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B111">
         <v>47</v>
@@ -3809,21 +3807,21 @@
         <v>27759</v>
       </c>
       <c r="D111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B112">
         <v>20</v>
@@ -3832,15 +3830,15 @@
         <v>37730</v>
       </c>
       <c r="H112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B113">
         <v>49</v>
@@ -3849,21 +3847,21 @@
         <v>27050</v>
       </c>
       <c r="F113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B114">
         <v>22</v>
@@ -3872,21 +3870,21 @@
         <v>36889</v>
       </c>
       <c r="D114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B115">
         <v>21</v>
@@ -3895,27 +3893,27 @@
         <v>37139</v>
       </c>
       <c r="D115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E115" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B116">
         <v>65</v>
@@ -3924,21 +3922,21 @@
         <v>21152</v>
       </c>
       <c r="F116" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B117">
         <v>48</v>
@@ -3947,21 +3945,21 @@
         <v>27332</v>
       </c>
       <c r="D117" t="s">
+        <v>30</v>
+      </c>
+      <c r="E117" t="s">
         <v>31</v>
       </c>
-      <c r="E117" t="s">
-        <v>32</v>
-      </c>
       <c r="H117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B118">
         <v>40</v>
@@ -3970,21 +3968,21 @@
         <v>30343</v>
       </c>
       <c r="D118" t="s">
+        <v>30</v>
+      </c>
+      <c r="E118" t="s">
         <v>31</v>
       </c>
-      <c r="E118" t="s">
-        <v>32</v>
-      </c>
       <c r="H118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B119">
         <v>67</v>
@@ -3993,27 +3991,27 @@
         <v>20327</v>
       </c>
       <c r="D119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F119" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B120">
         <v>57</v>
@@ -4022,21 +4020,21 @@
         <v>23993</v>
       </c>
       <c r="F120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B121">
         <v>69</v>
@@ -4045,21 +4043,21 @@
         <v>19663</v>
       </c>
       <c r="D121" t="s">
+        <v>30</v>
+      </c>
+      <c r="E121" t="s">
         <v>31</v>
       </c>
-      <c r="E121" t="s">
-        <v>32</v>
-      </c>
       <c r="H121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B122">
         <v>67</v>
@@ -4068,15 +4066,15 @@
         <v>20404</v>
       </c>
       <c r="H122" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B123">
         <v>35</v>
@@ -4085,21 +4083,21 @@
         <v>31983</v>
       </c>
       <c r="D123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E123" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B124">
         <v>41</v>
@@ -4108,15 +4106,15 @@
         <v>29775</v>
       </c>
       <c r="H124" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B125">
         <v>58</v>
@@ -4125,21 +4123,21 @@
         <v>23595</v>
       </c>
       <c r="F125" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B126">
         <v>75</v>
@@ -4148,15 +4146,15 @@
         <v>17692</v>
       </c>
       <c r="H126" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B127">
         <v>32</v>
@@ -4165,27 +4163,27 @@
         <v>33229</v>
       </c>
       <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" t="s">
         <v>13</v>
       </c>
-      <c r="E127" t="s">
-        <v>14</v>
-      </c>
       <c r="F127" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B128">
         <v>3</v>
@@ -4194,15 +4192,15 @@
         <v>43635</v>
       </c>
       <c r="H128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B129">
         <v>30</v>
@@ -4211,21 +4209,21 @@
         <v>33959</v>
       </c>
       <c r="F129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H129" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I129" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -4234,15 +4232,15 @@
         <v>44417</v>
       </c>
       <c r="H130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B131">
         <v>53</v>
@@ -4251,21 +4249,21 @@
         <v>25439</v>
       </c>
       <c r="D131" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E131" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I131" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B132">
         <v>50</v>
@@ -4274,21 +4272,21 @@
         <v>26584</v>
       </c>
       <c r="D132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E132" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H132" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B133">
         <v>15</v>
@@ -4297,21 +4295,21 @@
         <v>39373</v>
       </c>
       <c r="F133" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H133" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B134">
         <v>14</v>
@@ -4320,27 +4318,27 @@
         <v>39814</v>
       </c>
       <c r="D134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E134" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F134" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I134" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B135">
         <v>13</v>
@@ -4349,27 +4347,27 @@
         <v>40247</v>
       </c>
       <c r="D135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E135" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F135" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B136">
         <v>11</v>
@@ -4378,21 +4376,21 @@
         <v>40754</v>
       </c>
       <c r="F136" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H136" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B137">
         <v>43</v>
@@ -4401,21 +4399,21 @@
         <v>29133</v>
       </c>
       <c r="D137" t="s">
+        <v>30</v>
+      </c>
+      <c r="E137" t="s">
         <v>31</v>
       </c>
-      <c r="E137" t="s">
-        <v>32</v>
-      </c>
       <c r="H137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B138">
         <v>42</v>
@@ -4424,21 +4422,21 @@
         <v>29484</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H138" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B139">
         <v>76</v>
@@ -4447,27 +4445,27 @@
         <v>16994</v>
       </c>
       <c r="D139" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" t="s">
         <v>13</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
         <v>14</v>
       </c>
-      <c r="F139" t="s">
-        <v>15</v>
-      </c>
       <c r="G139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B140">
         <v>47</v>
@@ -4476,27 +4474,27 @@
         <v>27765</v>
       </c>
       <c r="D140" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" t="s">
         <v>13</v>
       </c>
-      <c r="E140" t="s">
-        <v>14</v>
-      </c>
       <c r="F140" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B141">
         <v>29</v>
@@ -4505,21 +4503,21 @@
         <v>34447</v>
       </c>
       <c r="D141" t="s">
+        <v>30</v>
+      </c>
+      <c r="E141" t="s">
         <v>31</v>
       </c>
-      <c r="E141" t="s">
-        <v>32</v>
-      </c>
       <c r="H141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I141" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B142">
         <v>24</v>
@@ -4528,21 +4526,21 @@
         <v>36202</v>
       </c>
       <c r="D142" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E142" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B143">
         <v>57</v>
@@ -4551,15 +4549,15 @@
         <v>23981</v>
       </c>
       <c r="H143" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B144">
         <v>53</v>
@@ -4568,21 +4566,21 @@
         <v>25693</v>
       </c>
       <c r="F144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H144" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B145">
         <v>53</v>
@@ -4591,27 +4589,27 @@
         <v>25452</v>
       </c>
       <c r="D145" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E145" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F145" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I145" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B146">
         <v>61</v>
@@ -4620,15 +4618,15 @@
         <v>22540</v>
       </c>
       <c r="H146" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I146" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B147">
         <v>28</v>
@@ -4637,27 +4635,27 @@
         <v>34631</v>
       </c>
       <c r="D147" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" t="s">
         <v>13</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>14</v>
       </c>
-      <c r="F147" t="s">
-        <v>15</v>
-      </c>
       <c r="G147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I147" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B148">
         <v>5</v>
@@ -4666,15 +4664,15 @@
         <v>42939</v>
       </c>
       <c r="H148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I148" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B149">
         <v>26</v>
@@ -4683,21 +4681,21 @@
         <v>35521</v>
       </c>
       <c r="F149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H149" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I149" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B150">
         <v>32</v>
@@ -4706,21 +4704,21 @@
         <v>33333</v>
       </c>
       <c r="F150" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G150" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B151">
         <v>34</v>
@@ -4729,27 +4727,27 @@
         <v>32519</v>
       </c>
       <c r="D151" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" t="s">
         <v>13</v>
       </c>
-      <c r="E151" t="s">
-        <v>14</v>
-      </c>
       <c r="F151" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G151" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H151" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I151" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B152">
         <v>72</v>
@@ -4758,21 +4756,21 @@
         <v>18759</v>
       </c>
       <c r="D152" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E152" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H152" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I152" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B153">
         <v>65</v>
@@ -4781,15 +4779,15 @@
         <v>21165</v>
       </c>
       <c r="H153" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I153" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B154">
         <v>37</v>
@@ -4798,27 +4796,27 @@
         <v>31503</v>
       </c>
       <c r="D154" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154" t="s">
         <v>13</v>
       </c>
-      <c r="E154" t="s">
-        <v>14</v>
-      </c>
       <c r="F154" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H154" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I154" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B155">
         <v>7</v>
@@ -4827,15 +4825,15 @@
         <v>42460</v>
       </c>
       <c r="H155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I155" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B156">
         <v>9</v>
@@ -4844,15 +4842,15 @@
         <v>41453</v>
       </c>
       <c r="H156" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I156" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B157">
         <v>12</v>
@@ -4861,21 +4859,21 @@
         <v>40487</v>
       </c>
       <c r="F157" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H157" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I157" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B158">
         <v>35</v>
@@ -4884,21 +4882,21 @@
         <v>32076</v>
       </c>
       <c r="F158" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H158" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I158" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B159">
         <v>40</v>
@@ -4907,21 +4905,21 @@
         <v>30287</v>
       </c>
       <c r="D159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E159" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I159" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B160">
         <v>39</v>
@@ -4930,27 +4928,27 @@
         <v>30849</v>
       </c>
       <c r="D160" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160" t="s">
         <v>13</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
         <v>14</v>
       </c>
-      <c r="F160" t="s">
-        <v>15</v>
-      </c>
       <c r="G160" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I160" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B161">
         <v>12</v>
@@ -4959,27 +4957,27 @@
         <v>40506</v>
       </c>
       <c r="D161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E161" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F161" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H161" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B162">
         <v>6</v>
@@ -4988,15 +4986,15 @@
         <v>42714</v>
       </c>
       <c r="H162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I162" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B163">
         <v>37</v>
@@ -5005,21 +5003,21 @@
         <v>31312</v>
       </c>
       <c r="F163" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G163" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H163" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I163" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B164">
         <v>10</v>
@@ -5028,15 +5026,15 @@
         <v>41149</v>
       </c>
       <c r="H164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I164" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B165">
         <v>78</v>
@@ -5045,27 +5043,27 @@
         <v>16280</v>
       </c>
       <c r="D165" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E165" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F165" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G165" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I165" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B166">
         <v>72</v>
@@ -5074,21 +5072,21 @@
         <v>18523</v>
       </c>
       <c r="F166" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G166" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H166" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I166" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B167">
         <v>45</v>
@@ -5097,27 +5095,27 @@
         <v>28395</v>
       </c>
       <c r="D167" t="s">
+        <v>12</v>
+      </c>
+      <c r="E167" t="s">
         <v>13</v>
       </c>
-      <c r="E167" t="s">
+      <c r="F167" t="s">
         <v>14</v>
       </c>
-      <c r="F167" t="s">
-        <v>15</v>
-      </c>
       <c r="G167" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H167" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I167" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B168">
         <v>59</v>
@@ -5126,15 +5124,15 @@
         <v>23411</v>
       </c>
       <c r="H168" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B169">
         <v>76</v>
@@ -5143,15 +5141,15 @@
         <v>16972</v>
       </c>
       <c r="H169" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I169" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B170">
         <v>79</v>
@@ -5160,21 +5158,21 @@
         <v>15934</v>
       </c>
       <c r="D170" t="s">
+        <v>12</v>
+      </c>
+      <c r="E170" t="s">
         <v>13</v>
       </c>
-      <c r="E170" t="s">
-        <v>14</v>
-      </c>
       <c r="H170" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I170" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B171">
         <v>16</v>
@@ -5183,21 +5181,21 @@
         <v>39164</v>
       </c>
       <c r="D171" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E171" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H171" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I171" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B172">
         <v>42</v>
@@ -5206,21 +5204,21 @@
         <v>29673</v>
       </c>
       <c r="F172" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G172" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H172" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I172" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B173">
         <v>60</v>
@@ -5229,27 +5227,27 @@
         <v>23124</v>
       </c>
       <c r="D173" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E173" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F173" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G173" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I173" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B174">
         <v>59</v>
@@ -5258,21 +5256,21 @@
         <v>23216</v>
       </c>
       <c r="F174" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G174" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H174" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I174" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B175">
         <v>28</v>
@@ -5281,15 +5279,15 @@
         <v>34731</v>
       </c>
       <c r="H175" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I175" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B176">
         <v>74</v>
@@ -5298,27 +5296,27 @@
         <v>18004</v>
       </c>
       <c r="D176" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E176" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F176" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G176" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H176" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I176" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B177">
         <v>72</v>
@@ -5327,21 +5325,21 @@
         <v>18454</v>
       </c>
       <c r="F177" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G177" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H177" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I177" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B178">
         <v>59</v>
@@ -5350,15 +5348,15 @@
         <v>23271</v>
       </c>
       <c r="H178" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I178" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B179">
         <v>36</v>
@@ -5367,21 +5365,21 @@
         <v>31582</v>
       </c>
       <c r="D179" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E179" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H179" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I179" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B180">
         <v>13</v>
@@ -5390,27 +5388,27 @@
         <v>40206</v>
       </c>
       <c r="D180" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E180" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F180" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G180" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H180" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I180" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B181">
         <v>37</v>
@@ -5419,27 +5417,27 @@
         <v>31357</v>
       </c>
       <c r="D181" t="s">
+        <v>12</v>
+      </c>
+      <c r="E181" t="s">
         <v>13</v>
       </c>
-      <c r="E181" t="s">
-        <v>14</v>
-      </c>
       <c r="F181" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G181" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H181" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I181" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B182">
         <v>68</v>
@@ -5448,21 +5446,21 @@
         <v>19920</v>
       </c>
       <c r="F182" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G182" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H182" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I182" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B183">
         <v>71</v>
@@ -5471,27 +5469,27 @@
         <v>18852</v>
       </c>
       <c r="D183" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E183" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F183" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G183" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H183" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I183" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B184">
         <v>11</v>
@@ -5500,21 +5498,21 @@
         <v>40815</v>
       </c>
       <c r="F184" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G184" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H184" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I184" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B185">
         <v>15</v>
@@ -5523,21 +5521,21 @@
         <v>39536</v>
       </c>
       <c r="F185" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G185" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H185" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I185" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B186">
         <v>42</v>
@@ -5546,15 +5544,15 @@
         <v>29595</v>
       </c>
       <c r="H186" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I186" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B187">
         <v>5</v>
@@ -5563,15 +5561,15 @@
         <v>42996</v>
       </c>
       <c r="H187" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I187" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B188">
         <v>38</v>
@@ -5580,21 +5578,21 @@
         <v>30950</v>
       </c>
       <c r="F188" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G188" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H188" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I188" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B189">
         <v>9</v>
@@ -5603,15 +5601,15 @@
         <v>41732</v>
       </c>
       <c r="H189" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I189" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B190">
         <v>18</v>
@@ -5620,15 +5618,15 @@
         <v>38226</v>
       </c>
       <c r="H190" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I190" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B191">
         <v>16</v>
@@ -5637,15 +5635,15 @@
         <v>39007</v>
       </c>
       <c r="H191" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I191" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B192">
         <v>48</v>
@@ -5654,21 +5652,21 @@
         <v>27423</v>
       </c>
       <c r="F192" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G192" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H192" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I192" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B193">
         <v>42</v>
@@ -5677,15 +5675,15 @@
         <v>29579</v>
       </c>
       <c r="H193" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I193" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B194">
         <v>64</v>
@@ -5694,21 +5692,21 @@
         <v>21412</v>
       </c>
       <c r="D194" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E194" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H194" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I194" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B195">
         <v>48</v>
@@ -5717,27 +5715,27 @@
         <v>27516</v>
       </c>
       <c r="D195" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E195" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F195" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G195" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H195" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I195" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B196">
         <v>40</v>
@@ -5746,21 +5744,21 @@
         <v>30274</v>
       </c>
       <c r="F196" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G196" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H196" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I196" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B197">
         <v>24</v>
@@ -5769,15 +5767,15 @@
         <v>36251</v>
       </c>
       <c r="H197" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I197" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B198">
         <v>22</v>
@@ -5786,21 +5784,21 @@
         <v>36974</v>
       </c>
       <c r="D198" t="s">
+        <v>30</v>
+      </c>
+      <c r="E198" t="s">
         <v>31</v>
       </c>
-      <c r="E198" t="s">
-        <v>32</v>
-      </c>
       <c r="H198" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I198" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B199">
         <v>51</v>
@@ -5809,21 +5807,21 @@
         <v>26369</v>
       </c>
       <c r="F199" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G199" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H199" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I199" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B200">
         <v>8</v>
@@ -5832,15 +5830,15 @@
         <v>41910</v>
       </c>
       <c r="H200" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I200" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B201">
         <v>14</v>
@@ -5849,21 +5847,21 @@
         <v>39752</v>
       </c>
       <c r="F201" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G201" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H201" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I201" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B202">
         <v>16</v>
@@ -5872,21 +5870,21 @@
         <v>39165</v>
       </c>
       <c r="F202" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G202" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H202" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I202" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B203">
         <v>18</v>
@@ -5895,21 +5893,21 @@
         <v>38265</v>
       </c>
       <c r="F203" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G203" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H203" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I203" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B204">
         <v>10</v>
@@ -5918,15 +5916,15 @@
         <v>41261</v>
       </c>
       <c r="H204" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I204" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B205">
         <v>13</v>
@@ -5935,27 +5933,27 @@
         <v>40192</v>
       </c>
       <c r="D205" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E205" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F205" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G205" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H205" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I205" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B206">
         <v>76</v>
@@ -5964,21 +5962,21 @@
         <v>17029</v>
       </c>
       <c r="F206" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G206" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H206" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I206" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B207">
         <v>56</v>
@@ -5987,21 +5985,21 @@
         <v>24292</v>
       </c>
       <c r="D207" t="s">
+        <v>30</v>
+      </c>
+      <c r="E207" t="s">
         <v>31</v>
       </c>
-      <c r="E207" t="s">
-        <v>32</v>
-      </c>
       <c r="H207" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I207" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B208">
         <v>19</v>
@@ -6010,21 +6008,21 @@
         <v>37842</v>
       </c>
       <c r="D208" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E208" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H208" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I208" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B209">
         <v>52</v>
@@ -6033,15 +6031,15 @@
         <v>25798</v>
       </c>
       <c r="H209" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I209" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B210">
         <v>68</v>
@@ -6050,21 +6048,21 @@
         <v>20222</v>
       </c>
       <c r="D210" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E210" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H210" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I210" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B211">
         <v>40</v>
@@ -6073,27 +6071,27 @@
         <v>30149</v>
       </c>
       <c r="D211" t="s">
+        <v>12</v>
+      </c>
+      <c r="E211" t="s">
         <v>13</v>
       </c>
-      <c r="E211" t="s">
-        <v>14</v>
-      </c>
       <c r="F211" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G211" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H211" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I211" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B212">
         <v>36</v>
@@ -6102,21 +6100,21 @@
         <v>31662</v>
       </c>
       <c r="F212" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G212" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H212" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I212" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B213">
         <v>68</v>
@@ -6125,21 +6123,21 @@
         <v>19947</v>
       </c>
       <c r="D213" t="s">
+        <v>12</v>
+      </c>
+      <c r="E213" t="s">
         <v>13</v>
       </c>
-      <c r="E213" t="s">
-        <v>14</v>
-      </c>
       <c r="H213" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I213" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B214">
         <v>36</v>
@@ -6148,21 +6146,21 @@
         <v>31782</v>
       </c>
       <c r="F214" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G214" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H214" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I214" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B215">
         <v>36</v>
@@ -6171,27 +6169,27 @@
         <v>31706</v>
       </c>
       <c r="D215" t="s">
+        <v>12</v>
+      </c>
+      <c r="E215" t="s">
         <v>13</v>
       </c>
-      <c r="E215" t="s">
+      <c r="F215" t="s">
         <v>14</v>
       </c>
-      <c r="F215" t="s">
-        <v>15</v>
-      </c>
       <c r="G215" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H215" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I215" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B216">
         <v>34</v>
@@ -6200,21 +6198,21 @@
         <v>32422</v>
       </c>
       <c r="F216" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G216" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H216" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I216" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B217">
         <v>61</v>
@@ -6223,21 +6221,21 @@
         <v>22570</v>
       </c>
       <c r="D217" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E217" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H217" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I217" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B218">
         <v>62</v>
@@ -6246,15 +6244,15 @@
         <v>22355</v>
       </c>
       <c r="H218" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I218" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B219">
         <v>13</v>
@@ -6263,21 +6261,21 @@
         <v>40226</v>
       </c>
       <c r="D219" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E219" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H219" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B220">
         <v>47</v>
@@ -6286,27 +6284,27 @@
         <v>27771</v>
       </c>
       <c r="D220" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E220" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F220" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G220" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H220" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I220" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B221">
         <v>15</v>
@@ -6315,21 +6313,21 @@
         <v>39258</v>
       </c>
       <c r="F221" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G221" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H221" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I221" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B222">
         <v>47</v>
@@ -6338,21 +6336,21 @@
         <v>27834</v>
       </c>
       <c r="F222" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G222" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H222" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I222" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B223">
         <v>18</v>
@@ -6361,21 +6359,21 @@
         <v>38258</v>
       </c>
       <c r="F223" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G223" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H223" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I223" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B224">
         <v>44</v>
@@ -6384,21 +6382,21 @@
         <v>28668</v>
       </c>
       <c r="F224" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G224" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H224" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I224" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B225">
         <v>63</v>
@@ -6407,21 +6405,21 @@
         <v>21944</v>
       </c>
       <c r="D225" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E225" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H225" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I225" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B226">
         <v>21</v>
@@ -6430,21 +6428,21 @@
         <v>37400</v>
       </c>
       <c r="D226" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E226" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H226" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I226" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B227">
         <v>47</v>
@@ -6453,21 +6451,21 @@
         <v>27865</v>
       </c>
       <c r="F227" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G227" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H227" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I227" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B228">
         <v>46</v>
@@ -6476,27 +6474,27 @@
         <v>28011</v>
       </c>
       <c r="D228" t="s">
+        <v>12</v>
+      </c>
+      <c r="E228" t="s">
         <v>13</v>
       </c>
-      <c r="E228" t="s">
+      <c r="F228" t="s">
         <v>14</v>
       </c>
-      <c r="F228" t="s">
-        <v>15</v>
-      </c>
       <c r="G228" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H228" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I228" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B229">
         <v>17</v>
@@ -6505,21 +6503,21 @@
         <v>38834</v>
       </c>
       <c r="D229" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E229" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H229" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I229" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B230">
         <v>22</v>
@@ -6528,15 +6526,15 @@
         <v>37038</v>
       </c>
       <c r="H230" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I230" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B231">
         <v>90</v>
@@ -6545,21 +6543,21 @@
         <v>11977</v>
       </c>
       <c r="F231" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G231" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H231" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I231" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B232">
         <v>36</v>
@@ -6568,15 +6566,15 @@
         <v>31832</v>
       </c>
       <c r="H232" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I232" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B233">
         <v>70</v>
@@ -6585,15 +6583,15 @@
         <v>19296</v>
       </c>
       <c r="H233" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I233" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B234">
         <v>71</v>
@@ -6602,21 +6600,21 @@
         <v>18818</v>
       </c>
       <c r="F234" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G234" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H234" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I234" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B235">
         <v>49</v>
@@ -6625,27 +6623,27 @@
         <v>27130</v>
       </c>
       <c r="D235" t="s">
+        <v>12</v>
+      </c>
+      <c r="E235" t="s">
         <v>13</v>
       </c>
-      <c r="E235" t="s">
+      <c r="F235" t="s">
         <v>14</v>
       </c>
-      <c r="F235" t="s">
-        <v>15</v>
-      </c>
       <c r="G235" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H235" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I235" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B236">
         <v>36</v>
@@ -6654,21 +6652,21 @@
         <v>31772</v>
       </c>
       <c r="D236" t="s">
+        <v>12</v>
+      </c>
+      <c r="E236" t="s">
         <v>13</v>
       </c>
-      <c r="E236" t="s">
-        <v>14</v>
-      </c>
       <c r="H236" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I236" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B237">
         <v>42</v>
@@ -6677,21 +6675,21 @@
         <v>29715</v>
       </c>
       <c r="D237" t="s">
+        <v>12</v>
+      </c>
+      <c r="E237" t="s">
         <v>13</v>
       </c>
-      <c r="E237" t="s">
-        <v>14</v>
-      </c>
       <c r="H237" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I237" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B238">
         <v>63</v>
@@ -6700,27 +6698,27 @@
         <v>21814</v>
       </c>
       <c r="D238" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E238" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F238" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G238" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H238" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I238" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B239">
         <v>62</v>
@@ -6729,21 +6727,21 @@
         <v>22319</v>
       </c>
       <c r="F239" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G239" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H239" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I239" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B240">
         <v>7</v>
@@ -6752,15 +6750,15 @@
         <v>42285</v>
       </c>
       <c r="H240" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I240" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B241">
         <v>34</v>
@@ -6769,21 +6767,21 @@
         <v>32637</v>
       </c>
       <c r="F241" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G241" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H241" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I241" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B242">
         <v>5</v>
@@ -6792,15 +6790,15 @@
         <v>43160</v>
       </c>
       <c r="H242" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I242" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B243">
         <v>34</v>
@@ -6809,27 +6807,27 @@
         <v>32504</v>
       </c>
       <c r="D243" t="s">
+        <v>12</v>
+      </c>
+      <c r="E243" t="s">
         <v>13</v>
       </c>
-      <c r="E243" t="s">
+      <c r="F243" t="s">
         <v>14</v>
       </c>
-      <c r="F243" t="s">
-        <v>15</v>
-      </c>
       <c r="G243" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H243" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I243" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B244">
         <v>9</v>
@@ -6838,15 +6836,15 @@
         <v>41477</v>
       </c>
       <c r="H244" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I244" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B245">
         <v>69</v>
@@ -6855,27 +6853,27 @@
         <v>19561</v>
       </c>
       <c r="D245" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E245" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F245" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G245" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H245" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I245" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B246">
         <v>66</v>
@@ -6884,21 +6882,21 @@
         <v>20976</v>
       </c>
       <c r="F246" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G246" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H246" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I246" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B247">
         <v>68</v>
@@ -6907,15 +6905,15 @@
         <v>20175</v>
       </c>
       <c r="H247" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I247" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B248">
         <v>59</v>
@@ -6924,21 +6922,21 @@
         <v>23408</v>
       </c>
       <c r="F248" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G248" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H248" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I248" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B249">
         <v>53</v>
@@ -6947,21 +6945,21 @@
         <v>25593</v>
       </c>
       <c r="D249" t="s">
+        <v>30</v>
+      </c>
+      <c r="E249" t="s">
         <v>31</v>
       </c>
-      <c r="E249" t="s">
-        <v>32</v>
-      </c>
       <c r="H249" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I249" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B250">
         <v>84</v>
@@ -6970,21 +6968,21 @@
         <v>14168</v>
       </c>
       <c r="F250" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G250" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H250" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I250" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B251">
         <v>49</v>
@@ -6993,27 +6991,27 @@
         <v>27123</v>
       </c>
       <c r="D251" t="s">
+        <v>12</v>
+      </c>
+      <c r="E251" t="s">
         <v>13</v>
       </c>
-      <c r="E251" t="s">
+      <c r="F251" t="s">
         <v>14</v>
       </c>
-      <c r="F251" t="s">
-        <v>15</v>
-      </c>
       <c r="G251" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H251" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I251" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B252">
         <v>48</v>
@@ -7022,21 +7020,21 @@
         <v>27285</v>
       </c>
       <c r="F252" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G252" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H252" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I252" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B253">
         <v>21</v>
@@ -7045,15 +7043,15 @@
         <v>37385</v>
       </c>
       <c r="H253" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I253" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B254">
         <v>19</v>
@@ -7062,21 +7060,21 @@
         <v>38034</v>
       </c>
       <c r="F254" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G254" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H254" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I254" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B255">
         <v>29</v>
@@ -7085,15 +7083,15 @@
         <v>34313</v>
       </c>
       <c r="H255" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I255" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B256">
         <v>51</v>
@@ -7102,15 +7100,15 @@
         <v>26157</v>
       </c>
       <c r="H256" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I256" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B257">
         <v>32</v>
@@ -7119,27 +7117,27 @@
         <v>33304</v>
       </c>
       <c r="D257" t="s">
+        <v>12</v>
+      </c>
+      <c r="E257" t="s">
         <v>13</v>
       </c>
-      <c r="E257" t="s">
-        <v>14</v>
-      </c>
       <c r="F257" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G257" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H257" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I257" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B258">
         <v>3</v>
@@ -7148,15 +7146,15 @@
         <v>43712</v>
       </c>
       <c r="H258" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I258" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B259">
         <v>29</v>
@@ -7165,21 +7163,21 @@
         <v>34474</v>
       </c>
       <c r="F259" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G259" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H259" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I259" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -7188,15 +7186,15 @@
         <v>44644</v>
       </c>
       <c r="H260" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I260" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B261">
         <v>88</v>
@@ -7205,21 +7203,21 @@
         <v>12837</v>
       </c>
       <c r="F261" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G261" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H261" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I261" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B262">
         <v>55</v>
@@ -7228,21 +7226,21 @@
         <v>24973</v>
       </c>
       <c r="F262" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G262" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H262" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I262" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B263">
         <v>56</v>
@@ -7251,27 +7249,27 @@
         <v>24562</v>
       </c>
       <c r="D263" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E263" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F263" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G263" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H263" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I263" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B264">
         <v>31</v>
@@ -7280,15 +7278,15 @@
         <v>33465</v>
       </c>
       <c r="H264" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I264" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B265">
         <v>48</v>
@@ -7297,21 +7295,21 @@
         <v>27229</v>
       </c>
       <c r="D265" t="s">
+        <v>30</v>
+      </c>
+      <c r="E265" t="s">
         <v>31</v>
       </c>
-      <c r="E265" t="s">
-        <v>32</v>
-      </c>
       <c r="H265" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I265" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B266">
         <v>62</v>
@@ -7320,21 +7318,21 @@
         <v>22269</v>
       </c>
       <c r="F266" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G266" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H266" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I266" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B267">
         <v>33</v>
@@ -7343,15 +7341,15 @@
         <v>32720</v>
       </c>
       <c r="H267" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I267" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B268">
         <v>69</v>
@@ -7360,27 +7358,27 @@
         <v>19701</v>
       </c>
       <c r="D268" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E268" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F268" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G268" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H268" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I268" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B269">
         <v>45</v>
@@ -7389,27 +7387,27 @@
         <v>28378</v>
       </c>
       <c r="D269" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E269" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F269" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G269" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H269" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I269" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B270">
         <v>16</v>
@@ -7418,21 +7416,21 @@
         <v>39044</v>
       </c>
       <c r="F270" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G270" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H270" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I270" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B271">
         <v>49</v>
@@ -7441,21 +7439,21 @@
         <v>27067</v>
       </c>
       <c r="F271" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G271" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H271" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I271" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B272">
         <v>14</v>
@@ -7464,21 +7462,21 @@
         <v>39942</v>
       </c>
       <c r="F272" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G272" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H272" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I272" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B273">
         <v>11</v>
@@ -7487,27 +7485,27 @@
         <v>40780</v>
       </c>
       <c r="D273" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E273" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F273" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G273" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H273" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I273" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B274">
         <v>82</v>
@@ -7516,21 +7514,21 @@
         <v>14820</v>
       </c>
       <c r="F274" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G274" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H274" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I274" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B275">
         <v>72</v>
@@ -7539,21 +7537,21 @@
         <v>18586</v>
       </c>
       <c r="F275" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G275" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H275" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I275" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B276">
         <v>87</v>
@@ -7562,27 +7560,27 @@
         <v>13133</v>
       </c>
       <c r="D276" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E276" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F276" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G276" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H276" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I276" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B277">
         <v>49</v>
@@ -7591,21 +7589,21 @@
         <v>27099</v>
       </c>
       <c r="F277" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G277" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H277" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I277" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B278">
         <v>34</v>
@@ -7614,10 +7612,10 @@
         <v>32674</v>
       </c>
       <c r="H278" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I278" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
